--- a/biology/Médecine/Georges_Boudin/Georges_Boudin.xlsx
+++ b/biology/Médecine/Georges_Boudin/Georges_Boudin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Victor Boudin, né le 3 septembre 1906 à Oyonnax (Ain) et mort le 27 décembre 1983 à Paris est un médecin et neurologue français ayant eu une carrière hospitalo-universitaire à Paris.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Descendant du peintre Eugène Boudin (1824-1898) et fils du médecin Paul Boudin, il est externe des Hôpitaux de Paris à 18 ans et reçu à l'Internat des hôpitaux de Paris en 1929, major de sa promotion[1]. Il sa soutient sa thèse de doctorat sur une forme clinique particulière de syndrome de Guillain-Barré avec diplégie faciale et s'intéresse ensuite aux formes sévères de cette affection d’évolution parfois fatale[1].
-Durant l'occupation allemande, il est brièvement emprisonné pour avoir caché des résistants. En 1943, il est nommé médecin des hôpitaux et assure ensuite pendant 4 ans les fonctions de chef de service à l'Hôpital Bicêtre. En 1947 il rejoint le professeur Théophile Alajouanine, pour diriger, avec Paul Castaigne, une division de son service de neurologie à l'Hôpital de la Salpêtrière [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descendant du peintre Eugène Boudin (1824-1898) et fils du médecin Paul Boudin, il est externe des Hôpitaux de Paris à 18 ans et reçu à l'Internat des hôpitaux de Paris en 1929, major de sa promotion. Il sa soutient sa thèse de doctorat sur une forme clinique particulière de syndrome de Guillain-Barré avec diplégie faciale et s'intéresse ensuite aux formes sévères de cette affection d’évolution parfois fatale.
+Durant l'occupation allemande, il est brièvement emprisonné pour avoir caché des résistants. En 1943, il est nommé médecin des hôpitaux et assure ensuite pendant 4 ans les fonctions de chef de service à l'Hôpital Bicêtre. En 1947 il rejoint le professeur Théophile Alajouanine, pour diriger, avec Paul Castaigne, une division de son service de neurologie à l'Hôpital de la Salpêtrière .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grande majorité des quelque 400 publications de Georges Boudin  porte sur des sujets très variés de neurologie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grande majorité des quelque 400 publications de Georges Boudin  porte sur des sujets très variés de neurologie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Honneurs et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre de l'Académie de Médecine en 1972, président de la Société française de neurologie en 1974, il est également officier de la Légion d'honneur[Quand ?][1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre de l'Académie de Médecine en 1972, président de la Société française de neurologie en 1974, il est également officier de la Légion d'honneur[Quand ?].
 </t>
         </is>
       </c>
